--- a/Procesos/ImpactoAutonomo_v1.4/ImpactoAutonomo_Unificado/Data/Config.xlsx
+++ b/Procesos/ImpactoAutonomo_v1.4/ImpactoAutonomo_Unificado/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/alicia_fernandez_siles_gds_ey_com/Documents/Documents/AMTEGA/GitHub/Xunta/Procesos/ImpactoAutonomo_v1.3.1/ImpactoAutonomo_v1.3/ImpactoAutonomo_Performer/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/alicia_fernandez_siles_gds_ey_com/Documents/Documents/AMTEGA/GitHub/Xunta/Procesos/ImpactoAutonomo_v1.4/ImpactoAutonomo_Unificado/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{379D1DD6-8E07-4CFF-954A-0464BD6885E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF1A7DF4-56B9-4D71-9F2E-022E206A09C5}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{379D1DD6-8E07-4CFF-954A-0464BD6885E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CAEC19F-AA7F-4075-8142-1ADE39E1AD8C}"/>
   <bookViews>
-    <workbookView xWindow="34530" yWindow="4350" windowWidth="13830" windowHeight="7170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -233,15 +233,9 @@
     <t>Identificador propio del proceso. Ej: TR_010_ImpactoAutonomo para el proceso Impacto Autonomo de Traballo.</t>
   </si>
   <si>
-    <t>C:\Users\PU751WV\EY\AMTEGA - XUNTA - Desarrollo\99. Varios\Plantillas correo\PlantillaCorreo.html</t>
-  </si>
-  <si>
     <t>Path de la plantilla del correo electrónico</t>
   </si>
   <si>
-    <t>C:\Users\PU751WV\Downloads\</t>
-  </si>
-  <si>
     <t>PlantillaCorreo</t>
   </si>
   <si>
@@ -255,6 +249,12 @@
   </si>
   <si>
     <t>NombreProceso</t>
+  </si>
+  <si>
+    <t>C:\Users\QJ775JJ\EY\AMTEGA - XUNTA - Desarrollo\99. Varios\Plantillas correo\PlantillaCorreo.html</t>
+  </si>
+  <si>
+    <t>C:\Users\QJ775JJ\Downloads\</t>
   </si>
 </sst>
 </file>
@@ -637,7 +637,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -744,13 +744,13 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -758,7 +758,7 @@
         <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>68</v>
@@ -768,13 +768,13 @@
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
@@ -782,7 +782,7 @@
         <v>51</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>

--- a/Procesos/ImpactoAutonomo_v1.4/ImpactoAutonomo_Unificado/Data/Config.xlsx
+++ b/Procesos/ImpactoAutonomo_v1.4/ImpactoAutonomo_Unificado/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/alicia_fernandez_siles_gds_ey_com/Documents/Documents/AMTEGA/GitHub/Xunta/Procesos/ImpactoAutonomo_v1.4/ImpactoAutonomo_Unificado/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{379D1DD6-8E07-4CFF-954A-0464BD6885E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CAEC19F-AA7F-4075-8142-1ADE39E1AD8C}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{379D1DD6-8E07-4CFF-954A-0464BD6885E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D587370-A686-45DB-AD61-0E4BAD47506C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -251,10 +251,10 @@
     <t>NombreProceso</t>
   </si>
   <si>
-    <t>C:\Users\QJ775JJ\EY\AMTEGA - XUNTA - Desarrollo\99. Varios\Plantillas correo\PlantillaCorreo.html</t>
-  </si>
-  <si>
     <t>C:\Users\QJ775JJ\Downloads\</t>
+  </si>
+  <si>
+    <t>C:\Users\QJ775JJ\OneDrive - EY\Desarrollo\99. Varios\Plantillas correo\PlantillaCorreo_v1.2.html</t>
   </si>
 </sst>
 </file>
@@ -637,7 +637,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -771,7 +771,7 @@
         <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>69</v>
@@ -782,7 +782,7 @@
         <v>51</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>
